--- a/data/trans_bre/P1416-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1416-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.69963194030136</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.715838428040633</v>
+        <v>4.71583842804063</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4457208770382208</v>
@@ -649,7 +649,7 @@
         <v>1.172225712270847</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.8445378723147192</v>
+        <v>0.8445378723147187</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3994626398382954</v>
+        <v>0.2675606840300254</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.447368987709562</v>
+        <v>-0.4136224960285975</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.040241532880743</v>
+        <v>1.130238154664124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.12332695559992</v>
+        <v>2.109845525745663</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04450296804572026</v>
+        <v>0.04521739012512348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1023129943510786</v>
+        <v>-0.09773644873717212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2859355040546162</v>
+        <v>0.3137930184630376</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2888565115944761</v>
+        <v>0.2662278085427456</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.371682602184245</v>
+        <v>4.252878738914922</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.117595907208273</v>
+        <v>3.131035134398684</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.492263827779709</v>
+        <v>4.895817416370569</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.139495034890348</v>
+        <v>7.045177191688966</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.001509239100187</v>
+        <v>1.012344525531505</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.137918597597638</v>
+        <v>1.12376728675673</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.858623981042319</v>
+        <v>3.054215845885669</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.778915907118518</v>
+        <v>1.633548348607056</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.684649893892707</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5700326519172918</v>
+        <v>0.5700326519172932</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5513281420510017</v>
@@ -749,7 +749,7 @@
         <v>0.7416627382603839</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.05116440815087071</v>
+        <v>0.05116440815087083</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.913768282695131</v>
+        <v>1.787144924752124</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.217379078868314</v>
+        <v>1.233807031023585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.085101259273058</v>
+        <v>2.153345755824275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.431488148050996</v>
+        <v>-1.56484369163406</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2357104169130652</v>
+        <v>0.2252597622705294</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1923747366416952</v>
+        <v>0.2048119501488814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3575536811659439</v>
+        <v>0.3742155207768134</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1136964262446752</v>
+        <v>-0.1228018643614386</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.867274800269366</v>
+        <v>5.736424593122472</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.649216825972948</v>
+        <v>4.694634519588998</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.396234229527219</v>
+        <v>5.260240968387037</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.766066229649971</v>
+        <v>2.546807609335153</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9753036712006738</v>
+        <v>0.9646627771174919</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9757773914430493</v>
+        <v>0.9779072906500749</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.265501510896259</v>
+        <v>1.231510460909119</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.272816685465173</v>
+        <v>0.2546495768838227</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.301072978657633</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.242122587011776</v>
+        <v>6.242122587011778</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3129530200594696</v>
@@ -849,7 +849,7 @@
         <v>0.2680941595797172</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.743879158348456</v>
+        <v>0.7438791583484562</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.560188990266001</v>
+        <v>-1.292361847220818</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5071366789605251</v>
+        <v>-0.3861429187083154</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.450596225453425</v>
+        <v>-1.592786102106492</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.049184525056627</v>
+        <v>2.805579323325897</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1560360310087726</v>
+        <v>-0.1213038398662814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.07834171649862545</v>
+        <v>-0.06027934850056844</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1563980292153097</v>
+        <v>-0.1585093281265501</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2823864614570133</v>
+        <v>0.2851842408526862</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.682843296301352</v>
+        <v>6.759528127801809</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.005638730615519</v>
+        <v>6.803090925772846</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.26165425150499</v>
+        <v>5.966609984477074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.388994371182397</v>
+        <v>9.480182307922696</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9173879670969786</v>
+        <v>0.9071116789552425</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.500839818450445</v>
+        <v>1.375930473943563</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9202044339445167</v>
+        <v>0.8445935195363945</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.355697796797783</v>
+        <v>1.415038036651443</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.013571249780497</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.305531223954413</v>
+        <v>2.30553122395441</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4328140102318511</v>
@@ -949,7 +949,7 @@
         <v>0.6077956195848013</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2383880492498966</v>
+        <v>0.2383880492498963</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.597517952178528</v>
+        <v>1.520765922735759</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.931325054643338</v>
+        <v>1.038490966326677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.806306550833559</v>
+        <v>1.76701881397804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9068042559838884</v>
+        <v>0.8149944656107154</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2149115787429046</v>
+        <v>0.2084628269614865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1601300009743107</v>
+        <v>0.18180242313165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3234195523501168</v>
+        <v>0.3269880933039321</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08128111759535975</v>
+        <v>0.07163676359730807</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.231508467912104</v>
+        <v>4.310981994245522</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.355999650321496</v>
+        <v>3.392676068927657</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.161492819698662</v>
+        <v>4.234104751080721</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.759110759438574</v>
+        <v>3.848853950010613</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6998063156302405</v>
+        <v>0.69877039523018</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7271486980119584</v>
+        <v>0.7411192418335031</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9303267416544593</v>
+        <v>0.9633506503722851</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.424552521225649</v>
+        <v>0.4392199051436654</v>
       </c>
     </row>
     <row r="16">
